--- a/C语言课程讲义_笔记/B站鹏哥/2024_3_26 P_15讲作业.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_3_26 P_15讲作业.xlsx
@@ -1739,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H8:X521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T332" sqref="T332"/>
+    <sheetView tabSelected="1" topLeftCell="A543" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X561" sqref="X561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
